--- a/TCListeModifyUser.xlsx
+++ b/TCListeModifyUser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZTE_testing\IdeaProjects\WebDriverTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389A57CC-1342-4829-A9E1-DB21CF38D4B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962016D5-A0EB-45FC-A596-B31C3CF8307F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="7785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="7785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modfyUser_TC_backup" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
   <si>
     <t>Standard</t>
   </si>
@@ -378,6 +378,20 @@
   <si>
     <t>Sprache</t>
   </si>
+  <si>
+    <t xml:space="preserve">darf nicht geändert werden.  
+User login varchar(60)
+</t>
+  </si>
+  <si>
+    <t>My SQL DB: user_email varchar(100)</t>
+  </si>
+  <si>
+    <t>My SQL DB: user url varchar(100)</t>
+  </si>
+  <si>
+    <t>My SQL DB table: WP_USERS: user_email varchar(100)</t>
+  </si>
 </sst>
 </file>
 
@@ -392,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -424,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -436,6 +456,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,6 +558,50 @@
         <a:xfrm>
           <a:off x="0" y="9144000"/>
           <a:ext cx="9135751" cy="8154539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>173069</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>38743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53951550-06BF-41B5-8848-DE4682FE0C68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17526000"/>
+          <a:ext cx="11603069" cy="4610743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1345,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,6 +1440,8 @@
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="27.140625" customWidth="1"/>
     <col min="9" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1439,7 +1506,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
@@ -1514,7 +1581,6 @@
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1535,8 +1601,15 @@
       <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="I5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="M5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1588,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96F1668-8A21-4AB3-B94D-37780F963E3A}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
